--- a/Proyectos_Sophitech_Pentaho/Presupuesto.xlsx
+++ b/Proyectos_Sophitech_Pentaho/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\SophiETL\Proyectos_Sophitech_Pentaho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C93CA6-AB50-4EF4-AD90-251311C85066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B56076-F2F9-45BE-AC68-482B993C45CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2ACE988-7F00-4C3E-9A73-66312BDAF201}"/>
   </bookViews>
@@ -486,9 +486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2951C95A-F9A6-4E99-B72B-1D4A716C337D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -718,7 +723,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>490</v>
@@ -744,7 +749,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>490</v>
